--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41476.5906318686</v>
+        <v>33832.5287778382</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219458</v>
+        <v>33937088.13219457</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3620994.436382232</v>
+        <v>3620994.436382231</v>
       </c>
     </row>
     <row r="11">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.0839105424619</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>119.0839105424619</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>30.70785528783136</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="G8" t="n">
-        <v>30.7078552878327</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796767</v>
+        <v>74.18125311796777</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>119.0839105424619</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809189</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656961</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>119.0839105424619</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424619</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>41.22882262934787</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>48.24380842194384</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>104.8891084057991</v>
       </c>
       <c r="T10" t="n">
-        <v>104.8891084058004</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424619</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424619</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>119.0839105424619</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>111.0125920504353</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>146.65472113947</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>220.7387690580436</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.3543712020896</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>203.0563037569323</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>338.4808168885323</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -1666,16 +1666,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>128.0685837420158</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>131.5131603608121</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>311.1536598048419</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>16.4831353159892</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2013,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>138.4015858984358</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>138.7434236076983</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>340.2352302787469</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>162.229992544409</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -2140,10 +2140,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>81.30766987964064</v>
+        <v>96.2681189135765</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>39.28601389839164</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>149.6157531058523</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58.23277272243453</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2484,10 +2484,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
@@ -2529,7 +2529,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -2538,13 +2538,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>223.021772773323</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>363.2732274219861</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>53.53698948160874</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>49.34995949258659</v>
+        <v>154.9460495062423</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>390.3229103695026</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>145.5391880408606</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>114.2435844806794</v>
       </c>
       <c r="H31" t="n">
-        <v>61.19617440684119</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>88.17306809518632</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5540470185019</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>93.47781416967008</v>
+        <v>124.9554984777218</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>168.4257624077813</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>149.6157531058527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>236.4403444455087</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>109.5540470185019</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3669,10 +3669,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.922153605885</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>29.59745405728576</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>361.9987888703332</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>148.5323093579186</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3903,19 +3903,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>49.34995949258705</v>
       </c>
       <c r="H43" t="n">
-        <v>60.07073011995545</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>361.9987888703323</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>224.4032842719485</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,10 +4140,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>54.31661462074954</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>11.31461330144462</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160.8315268133915</v>
+        <v>281.1183051391063</v>
       </c>
       <c r="C8" t="n">
-        <v>40.54474848767241</v>
+        <v>281.1183051391063</v>
       </c>
       <c r="D8" t="n">
-        <v>40.54474848767241</v>
+        <v>250.1002694948322</v>
       </c>
       <c r="E8" t="n">
-        <v>40.54474848767241</v>
+        <v>250.1002694948322</v>
       </c>
       <c r="F8" t="n">
-        <v>40.54474848767241</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396952</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396952</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585591</v>
+        <v>23.57954741585561</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558078</v>
+        <v>55.41632306558011</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318079</v>
+        <v>103.1313969318066</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183109</v>
+        <v>162.3261653183089</v>
       </c>
       <c r="M8" t="n">
-        <v>228.191750759095</v>
+        <v>228.1917507590923</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326605</v>
+        <v>295.123110232657</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336453</v>
+        <v>358.3244950336411</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455704</v>
+        <v>412.2654147455655</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245049</v>
+        <v>452.7727990244996</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698476</v>
+        <v>476.335642169842</v>
       </c>
       <c r="S8" t="n">
-        <v>401.4050834648298</v>
+        <v>401.405083464824</v>
       </c>
       <c r="T8" t="n">
-        <v>401.4050834648298</v>
+        <v>401.405083464824</v>
       </c>
       <c r="U8" t="n">
-        <v>281.1183051391106</v>
+        <v>281.1183051391063</v>
       </c>
       <c r="V8" t="n">
-        <v>281.1183051391106</v>
+        <v>281.1183051391063</v>
       </c>
       <c r="W8" t="n">
-        <v>281.1183051391106</v>
+        <v>281.1183051391063</v>
       </c>
       <c r="X8" t="n">
-        <v>281.1183051391106</v>
+        <v>281.1183051391063</v>
       </c>
       <c r="Y8" t="n">
-        <v>281.1183051391106</v>
+        <v>281.1183051391063</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>134.4649821891998</v>
+        <v>187.0309659002815</v>
       </c>
       <c r="C9" t="n">
-        <v>134.4649821891998</v>
+        <v>187.0309659002815</v>
       </c>
       <c r="D9" t="n">
-        <v>134.4649821891998</v>
+        <v>187.0309659002815</v>
       </c>
       <c r="E9" t="n">
-        <v>134.4649821891998</v>
+        <v>92.91055122723522</v>
       </c>
       <c r="F9" t="n">
-        <v>134.4649821891998</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="G9" t="n">
-        <v>49.28466765965139</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396952</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160456</v>
+        <v>16.43678475114677</v>
       </c>
       <c r="J9" t="n">
-        <v>61.46222338483297</v>
+        <v>67.70899752367923</v>
       </c>
       <c r="K9" t="n">
-        <v>93.87090076414917</v>
+        <v>100.117674902995</v>
       </c>
       <c r="L9" t="n">
-        <v>137.4483669798389</v>
+        <v>143.6951411186842</v>
       </c>
       <c r="M9" t="n">
-        <v>188.3012146372552</v>
+        <v>194.5479887761</v>
       </c>
       <c r="N9" t="n">
-        <v>306.1942860742925</v>
+        <v>246.7467599936367</v>
       </c>
       <c r="O9" t="n">
-        <v>353.9459638806256</v>
+        <v>294.4984377999692</v>
       </c>
       <c r="P9" t="n">
-        <v>392.270895182488</v>
+        <v>332.8233691018311</v>
       </c>
       <c r="Q9" t="n">
-        <v>417.8900968134633</v>
+        <v>358.4425707328061</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698476</v>
+        <v>476.335642169842</v>
       </c>
       <c r="S9" t="n">
-        <v>416.6838142238177</v>
+        <v>476.335642169842</v>
       </c>
       <c r="T9" t="n">
-        <v>296.3970358980986</v>
+        <v>356.0488638441243</v>
       </c>
       <c r="U9" t="n">
-        <v>296.3970358980986</v>
+        <v>356.0488638441243</v>
       </c>
       <c r="V9" t="n">
-        <v>176.1102575723795</v>
+        <v>356.0488638441243</v>
       </c>
       <c r="W9" t="n">
-        <v>134.4649821891998</v>
+        <v>356.0488638441243</v>
       </c>
       <c r="X9" t="n">
-        <v>134.4649821891998</v>
+        <v>307.3177442259992</v>
       </c>
       <c r="Y9" t="n">
-        <v>134.4649821891998</v>
+        <v>307.3177442259992</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396952</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396952</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396952</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396952</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396952</v>
+        <v>250.1002694948322</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396952</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396952</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396952</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011151</v>
+        <v>25.16641755349349</v>
       </c>
       <c r="K10" t="n">
-        <v>225.8954717381524</v>
+        <v>143.0594889905294</v>
       </c>
       <c r="L10" t="n">
-        <v>262.185449439807</v>
+        <v>168.0752047549865</v>
       </c>
       <c r="M10" t="n">
-        <v>288.5610142512623</v>
+        <v>194.4507695664414</v>
       </c>
       <c r="N10" t="n">
-        <v>314.3094270837871</v>
+        <v>220.199182398966</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360058</v>
+        <v>338.0922538360019</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328103</v>
+        <v>358.4425707328061</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698476</v>
+        <v>476.335642169842</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698476</v>
+        <v>476.335642169842</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698476</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="T10" t="n">
-        <v>370.3870478205543</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="U10" t="n">
-        <v>250.1002694948352</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="V10" t="n">
-        <v>129.8134911691161</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="W10" t="n">
-        <v>129.8134911691161</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="X10" t="n">
-        <v>9.526712843396952</v>
+        <v>370.3870478205499</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396952</v>
+        <v>370.3870478205499</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1303.114292011252</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="C11" t="n">
-        <v>864.9718191946758</v>
+        <v>629.1173783497202</v>
       </c>
       <c r="D11" t="n">
-        <v>429.0620343691203</v>
+        <v>629.1173783497202</v>
       </c>
       <c r="E11" t="n">
-        <v>429.0620343691203</v>
+        <v>195.3426335080154</v>
       </c>
       <c r="F11" t="n">
-        <v>429.0620343691203</v>
+        <v>195.3426335080154</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>195.3426335080154</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2148.556325916849</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>2148.556325916849</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X11" t="n">
-        <v>1729.41386249616</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y11" t="n">
-        <v>1729.41386249616</v>
+        <v>1067.259851166297</v>
       </c>
     </row>
     <row r="12">
@@ -5102,22 +5102,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,7 +5126,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
         <v>803.387703298788</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.353309902451</v>
+        <v>863.3185618614019</v>
       </c>
       <c r="C13" t="n">
-        <v>389.7915983856759</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D13" t="n">
-        <v>223.9136055871985</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E13" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>295.952449036051</v>
       </c>
       <c r="L13" t="n">
-        <v>744.992999204955</v>
+        <v>419.8232506543489</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.17407462327</v>
+        <v>550.4276429928783</v>
       </c>
       <c r="N13" t="n">
-        <v>1708.047382044527</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O13" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1895.111899757159</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1608.15639162759</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1336.129987213881</v>
       </c>
       <c r="X13" t="n">
-        <v>890.8935156942559</v>
+        <v>1090.738232547294</v>
       </c>
       <c r="Y13" t="n">
-        <v>754.1719286214382</v>
+        <v>863.3185618614019</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>651.8166204017324</v>
+        <v>1058.330609364489</v>
       </c>
       <c r="C14" t="n">
-        <v>446.7092428694776</v>
+        <v>1058.330609364489</v>
       </c>
       <c r="D14" t="n">
-        <v>446.7092428694776</v>
+        <v>1058.330609364489</v>
       </c>
       <c r="E14" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>1486.402314586987</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W14" t="n">
-        <v>1486.402314586987</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="X14" t="n">
-        <v>1486.402314586987</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="Y14" t="n">
-        <v>1078.11619088664</v>
+        <v>1484.630179849397</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5351,7 +5351,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043086</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.1113136517137</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C16" t="n">
-        <v>559.5496021349386</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D16" t="n">
         <v>393.6716093364613</v>
@@ -5436,25 +5436,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728195</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.801244395024</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1151.349603056593</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.9299323707007</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>908.8487259814518</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="C17" t="n">
-        <v>908.8487259814518</v>
+        <v>1622.648043367471</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
         <v>47.20655154895474</v>
@@ -5512,10 +5512,10 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228019</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2343.677945815425</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2084.607254336939</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>1721.990304270765</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W17" t="n">
-        <v>1317.134849681798</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X17" t="n">
-        <v>1317.134849681798</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y17" t="n">
-        <v>908.8487259814518</v>
+        <v>2060.790516184048</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.8524940391952</v>
+        <v>992.2890823372272</v>
       </c>
       <c r="C19" t="n">
-        <v>724.2907825224202</v>
+        <v>819.7273708204522</v>
       </c>
       <c r="D19" t="n">
-        <v>558.4127897239429</v>
+        <v>653.8493780219749</v>
       </c>
       <c r="E19" t="n">
-        <v>388.6547859746801</v>
+        <v>484.0913742727121</v>
       </c>
       <c r="F19" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
         <v>47.20655154895474</v>
@@ -5676,22 +5676,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>413.3628026016839</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>997.5438780199987</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N19" t="n">
-        <v>1567.301592981533</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O19" t="n">
-        <v>1685.067474329295</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5703,22 +5703,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U19" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="V19" t="n">
-        <v>1833.50894252437</v>
+        <v>1928.945530822402</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.482538110662</v>
+        <v>1656.919126408694</v>
       </c>
       <c r="X19" t="n">
-        <v>1316.090783444074</v>
+        <v>1411.527371742106</v>
       </c>
       <c r="Y19" t="n">
-        <v>1088.671112758182</v>
+        <v>1184.107701056214</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1060.102744102079</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="C20" t="n">
-        <v>1060.102744102079</v>
+        <v>1046.48770703282</v>
       </c>
       <c r="D20" t="n">
-        <v>1060.102744102079</v>
+        <v>610.5779222072645</v>
       </c>
       <c r="E20" t="n">
-        <v>716.4307943255671</v>
+        <v>610.5779222072645</v>
       </c>
       <c r="F20" t="n">
-        <v>716.4307943255671</v>
+        <v>610.5779222072645</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>211.0752308867416</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895474</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U20" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.402314586987</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W20" t="n">
-        <v>1486.402314586987</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="X20" t="n">
-        <v>1486.402314586987</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="Y20" t="n">
-        <v>1486.402314586987</v>
+        <v>1484.630179849397</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
         <v>79.1492015823585</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960908</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987881</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.655226289377</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C22" t="n">
-        <v>299.093514772602</v>
+        <v>490.9121334915891</v>
       </c>
       <c r="D22" t="n">
-        <v>216.9645552982175</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
         <v>47.20655154895474</v>
@@ -5913,22 +5913,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>358.0754347909399</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.88939387056246</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C23" t="n">
-        <v>47.20655154895474</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D23" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E23" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U23" t="n">
-        <v>2108.089956131646</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V23" t="n">
-        <v>1745.473006065473</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W23" t="n">
-        <v>1340.617551476506</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X23" t="n">
-        <v>921.4750880558169</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y23" t="n">
-        <v>513.1889643554703</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.291841223631</v>
+        <v>745.8267834361247</v>
       </c>
       <c r="C25" t="n">
-        <v>919.7301297068562</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="D25" t="n">
-        <v>753.852136908379</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E25" t="n">
-        <v>584.0941331591162</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F25" t="n">
         <v>407.3870791208724</v>
@@ -6144,28 +6144,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M25" t="n">
-        <v>1690.512214359095</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N25" t="n">
-        <v>1887.361501150536</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O25" t="n">
-        <v>2005.127382498298</v>
+        <v>2016.697670932566</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1937.514407000715</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1650.558898871145</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W25" t="n">
-        <v>1378.532494457437</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X25" t="n">
-        <v>1378.532494457437</v>
+        <v>1162.919920107963</v>
       </c>
       <c r="Y25" t="n">
-        <v>1151.112823771545</v>
+        <v>937.6454021551119</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1122.013229783223</v>
+        <v>1366.796912429987</v>
       </c>
       <c r="C26" t="n">
-        <v>683.8707569666465</v>
+        <v>928.65443961341</v>
       </c>
       <c r="D26" t="n">
-        <v>683.8707569666465</v>
+        <v>928.65443961341</v>
       </c>
       <c r="E26" t="n">
-        <v>683.8707569666465</v>
+        <v>928.65443961341</v>
       </c>
       <c r="F26" t="n">
-        <v>683.8707569666465</v>
+        <v>500.7870100226177</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>101.2843187020949</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6247,7 +6247,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R26" t="n">
         <v>2360.327577447737</v>
@@ -6259,19 +6259,19 @@
         <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>1889.485634438363</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V26" t="n">
-        <v>1526.86868437219</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W26" t="n">
-        <v>1122.013229783223</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="X26" t="n">
-        <v>1122.013229783223</v>
+        <v>1366.796912429987</v>
       </c>
       <c r="Y26" t="n">
-        <v>1122.013229783223</v>
+        <v>1366.796912429987</v>
       </c>
     </row>
     <row r="27">
@@ -6366,40 +6366,40 @@
         <v>443.520053268367</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L28" t="n">
-        <v>744.992999204955</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M28" t="n">
-        <v>875.5973915434845</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N28" t="n">
-        <v>1445.355106505019</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O28" t="n">
-        <v>1982.790237078562</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540314</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>919.1237692072363</v>
+        <v>1303.114292011252</v>
       </c>
       <c r="C29" t="n">
-        <v>480.9812963906596</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D29" t="n">
-        <v>480.9812963906596</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
         <v>47.20655154895474</v>
@@ -6460,16 +6460,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U29" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V29" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W29" t="n">
-        <v>2172.85192681318</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X29" t="n">
-        <v>1753.709463392491</v>
+        <v>1729.41386249616</v>
       </c>
       <c r="Y29" t="n">
-        <v>1345.423339692144</v>
+        <v>1729.41386249616</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D31" t="n">
-        <v>443.520053268367</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E31" t="n">
-        <v>273.7620495191042</v>
+        <v>471.655226289377</v>
       </c>
       <c r="F31" t="n">
-        <v>273.7620495191042</v>
+        <v>294.9481722511332</v>
       </c>
       <c r="G31" t="n">
-        <v>109.0208691316226</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895474</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M31" t="n">
-        <v>1690.512214359095</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N31" t="n">
-        <v>1887.361501150536</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O31" t="n">
-        <v>2005.127382498298</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1893.561637177626</v>
+        <v>1233.361929063012</v>
       </c>
       <c r="C32" t="n">
-        <v>1455.41916436105</v>
+        <v>1233.361929063012</v>
       </c>
       <c r="D32" t="n">
-        <v>1019.509379535494</v>
+        <v>1233.361929063012</v>
       </c>
       <c r="E32" t="n">
-        <v>585.7346346937893</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F32" t="n">
-        <v>157.867205102997</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435802</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6733,19 +6733,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W32" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X32" t="n">
-        <v>2319.861207662534</v>
+        <v>1641.648052763359</v>
       </c>
       <c r="Y32" t="n">
-        <v>2319.861207662534</v>
+        <v>1233.361929063012</v>
       </c>
     </row>
     <row r="33">
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>481.9462364092381</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N34" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P34" t="n">
         <v>2274.089213540314</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2121.479004437153</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U34" t="n">
-        <v>1843.092372485896</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V34" t="n">
-        <v>1556.136864356327</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.110459942618</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X34" t="n">
-        <v>1284.110459942618</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C35" t="n">
         <v>1344.758510807007</v>
@@ -6934,16 +6934,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447737</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="X35" t="n">
-        <v>2360.327577447737</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.200554108492</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.081764785142</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268367</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364613</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
@@ -7098,22 +7098,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092378</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7137,10 +7137,10 @@
         <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>1041.883178103569</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041292</v>
+        <v>814.4635074176776</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1893.561637177626</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>1455.41916436105</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>1019.509379535494</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>585.7346346937893</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>157.867205102997</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>157.867205102997</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L38" t="n">
         <v>805.4408022867025</v>
@@ -7216,10 +7216,10 @@
         <v>2319.861207662534</v>
       </c>
       <c r="X38" t="n">
-        <v>2319.861207662534</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>2319.861207662534</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.0944902899325</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C40" t="n">
-        <v>554.5327787731575</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6547859746801</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E40" t="n">
-        <v>388.6547859746801</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F40" t="n">
         <v>211.9477319364363</v>
@@ -7332,22 +7332,22 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>358.0754347909401</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092381</v>
+        <v>744.9929992049551</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
         <v>2274.089213540314</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2229.093078855934</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2229.093078855934</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1950.706446904677</v>
+        <v>1943.757396615696</v>
       </c>
       <c r="V40" t="n">
-        <v>1663.750938775107</v>
+        <v>1656.801888486126</v>
       </c>
       <c r="W40" t="n">
-        <v>1391.724534361399</v>
+        <v>1384.775484072418</v>
       </c>
       <c r="X40" t="n">
-        <v>1146.332779694812</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="Y40" t="n">
-        <v>918.9131090089197</v>
+        <v>911.9640587199385</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>744.7955325958366</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>744.7955325958366</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>744.7955325958366</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,7 +7432,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="U41" t="n">
-        <v>2148.556325916849</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="V41" t="n">
-        <v>1998.52369020178</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="W41" t="n">
-        <v>1998.52369020178</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="X41" t="n">
-        <v>1579.381226781091</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="Y41" t="n">
-        <v>1171.095103080744</v>
+        <v>2148.55632591685</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I42" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
         <v>1488.088567599445</v>
@@ -7545,52 +7545,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C43" t="n">
-        <v>443.520053268367</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D43" t="n">
-        <v>277.6420604698897</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="E43" t="n">
-        <v>107.8840567206269</v>
+        <v>273.7620495191047</v>
       </c>
       <c r="F43" t="n">
-        <v>107.8840567206269</v>
+        <v>97.05499548086087</v>
       </c>
       <c r="G43" t="n">
-        <v>107.8840567206269</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.4344430832</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R43" t="n">
         <v>2360.327577447737</v>
@@ -7599,10 +7599,10 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V43" t="n">
         <v>1552.738213270317</v>
@@ -7614,7 +7614,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>701.7439652528263</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>701.7439652528263</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>701.7439652528263</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>701.7439652528263</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>273.8765356620341</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7678,22 +7678,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W44" t="n">
-        <v>1955.47212285877</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X44" t="n">
-        <v>1536.329659438081</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y44" t="n">
-        <v>1128.043535737734</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>266.8129992301227</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>102.0718188426411</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7836,22 +7836,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2348.898675123045</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>2070.512043171788</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.556535042219</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1511.53013062851</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>32.6368154538427</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>66.35787900959592</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>46.44901925259062</v>
+        <v>106.497025394663</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>3.781517592998448</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190432</v>
+        <v>99.33766198190312</v>
       </c>
       <c r="L10" t="n">
-        <v>11.38814337090625</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698737</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340663</v>
+        <v>104.852087734065</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>6.52570510370208</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>253.9135309266337</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>444.9969971592904</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>141.4680432173441</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9324,22 +9324,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P19" t="n">
-        <v>323.2928365343469</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9561,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>69.27619576520598</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
-        <v>70.05088382580948</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>158.2045317475395</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>176.4173968858563</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>192.4544649334025</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>70.05088382580948</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>156.7304232042869</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>347.0837767286137</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>264.6463123855408</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>69.27619576520621</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>288.1634641124961</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.9526642375968</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>314.677137545949</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>400.8428316894685</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>304.5048447524238</v>
       </c>
       <c r="G8" t="n">
-        <v>366.297101364383</v>
+        <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>282.3584801445919</v>
+        <v>163.2745696021314</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>137.5158574008311</v>
+        <v>137.5158574008325</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>1.00695152650502</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
@@ -23108,16 +23108,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809192</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656965</v>
       </c>
       <c r="T9" t="n">
-        <v>8.975812792896768</v>
+        <v>8.975812792898182</v>
       </c>
       <c r="U9" t="n">
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615873</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>142.2407040947901</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>105.074952981565</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23190,16 +23190,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>55.85607295540083</v>
       </c>
       <c r="G10" t="n">
-        <v>163.7654023385416</v>
+        <v>44.6814917960811</v>
       </c>
       <c r="H10" t="n">
-        <v>136.9920546719889</v>
+        <v>17.90814412952841</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742786</v>
+        <v>82.66219243742792</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.561628576164</v>
+        <v>13.56162857616409</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>49.79790932510055</v>
       </c>
       <c r="T10" t="n">
-        <v>137.8053513118214</v>
+        <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577335</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058119</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>123.8539265774597</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>284.4950723568823</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>120.3696148020586</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>54.86399657370083</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.79110277694321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>230.7047443314787</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>90.95618050475542</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>114.8692533779058</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>93.63231361822073</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>120.397027172458</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>193.1704036995897</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>36.53839759942554</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>145.3425294405755</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>89.20176711454081</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>104.7943433971196</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>82.91154299085188</v>
+        <v>67.95109395691603</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
@@ -24208,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>394.4750341900193</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>106.8642314578489</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131.6676598093627</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2.123701205709807</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>32.23443698533146</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>213.4873464599199</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8692533779059</v>
+        <v>9.273163364250252</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>43.43813771890831</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -24742,13 +24742,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>255.2677120022164</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>48.85018410292734</v>
       </c>
       <c r="H31" t="n">
-        <v>69.82444560763606</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>341.2639292981014</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>285.9536173888157</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24982,10 +24982,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>146.3469376859573</v>
+        <v>114.8692533779057</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>41.22777660779761</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>254.5875093574904</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>6.497492674412968</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>157.4702889230268</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>13.06011950492285</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>246.0053115744587</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>60.03778590972547</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>210.4584712075931</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>113.7438090910197</v>
       </c>
       <c r="H43" t="n">
-        <v>70.9498898945218</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>60.03778590972638</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>171.104380135369</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25918,7 +25918,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -25927,13 +25927,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>76.70400539372773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>228.5101385541828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>92003.57008527147</v>
+        <v>92003.57008527037</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407504.9498708113</v>
+        <v>407504.9498708112</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>407504.9498708113</v>
+        <v>407504.9498708112</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>34693.90071497265</v>
+        <v>34693.90071497223</v>
       </c>
       <c r="E2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
       <c r="F2" t="n">
         <v>157297.5713008174</v>
@@ -26355,7 +26355,7 @@
         <v>157297.5713008174</v>
       </c>
       <c r="P2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730588</v>
+        <v>117708.4675730575</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180433</v>
+        <v>439858.2450180445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310223</v>
+        <v>30139.06600310187</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597478</v>
+        <v>117374.5815597481</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5372.08209129694</v>
+        <v>5372.082091296877</v>
       </c>
       <c r="E4" t="n">
         <v>14728.7909942616</v>
@@ -26432,10 +26432,10 @@
         <v>14728.7909942616</v>
       </c>
       <c r="G4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="H4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="I4" t="n">
         <v>14728.7909942616</v>
@@ -26447,16 +26447,16 @@
         <v>14728.7909942616</v>
       </c>
       <c r="L4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="M4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="N4" t="n">
         <v>14728.7909942616</v>
       </c>
       <c r="O4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="P4" t="n">
         <v>14728.7909942616</v>
@@ -26475,10 +26475,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239245</v>
+        <v>42922.56227239233</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963782</v>
@@ -26490,7 +26490,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963782</v>
@@ -26508,10 +26508,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-131309.2112217756</v>
+        <v>-132476.1100179256</v>
       </c>
       <c r="E6" t="n">
-        <v>-343340.5459211254</v>
+        <v>-343894.4263643486</v>
       </c>
       <c r="F6" t="n">
-        <v>96517.69909691803</v>
+        <v>95963.81865369601</v>
       </c>
       <c r="G6" t="n">
-        <v>96517.69909691798</v>
+        <v>95963.81865369604</v>
       </c>
       <c r="H6" t="n">
-        <v>96517.699096918</v>
+        <v>95963.81865369604</v>
       </c>
       <c r="I6" t="n">
-        <v>96517.699096918</v>
+        <v>95963.81865369609</v>
       </c>
       <c r="J6" t="n">
-        <v>96517.69909691798</v>
+        <v>95963.81865369604</v>
       </c>
       <c r="K6" t="n">
-        <v>96517.699096918</v>
+        <v>95963.81865369601</v>
       </c>
       <c r="L6" t="n">
-        <v>66378.63309381578</v>
+        <v>65824.75265059415</v>
       </c>
       <c r="M6" t="n">
-        <v>-20856.88246282973</v>
+        <v>-21410.76290605203</v>
       </c>
       <c r="N6" t="n">
-        <v>96517.69909691798</v>
+        <v>95963.81865369604</v>
       </c>
       <c r="O6" t="n">
-        <v>96517.69909691798</v>
+        <v>95963.81865369603</v>
       </c>
       <c r="P6" t="n">
-        <v>96517.69909691795</v>
+        <v>95963.818653696</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480553</v>
+        <v>94.25048217480442</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26773,10 +26773,10 @@
         <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="P3" t="n">
         <v>466.7019280932212</v>
@@ -26795,10 +26795,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424619</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
@@ -26810,7 +26810,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619342</v>
@@ -26828,10 +26828,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480553</v>
+        <v>94.25048217480442</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184156</v>
+        <v>372.4514459184167</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424619</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194723</v>
+        <v>470.9979838194735</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424619</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194723</v>
+        <v>470.9979838194735</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424619</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194723</v>
+        <v>470.9979838194735</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529867</v>
+        <v>0.3788964107529823</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624027</v>
+        <v>3.880372866623981</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555454</v>
+        <v>14.60740387555436</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214634</v>
+        <v>32.15835924214596</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932028</v>
+        <v>48.19704430931971</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990201</v>
+        <v>59.79269533990131</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463043</v>
+        <v>66.53089438462965</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168237</v>
+        <v>67.60743381168157</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725735</v>
+        <v>63.8397826272566</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679298</v>
+        <v>54.48577748679234</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670163</v>
+        <v>40.91654977670115</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196233</v>
+        <v>23.80085166196205</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033695</v>
+        <v>8.634101960033593</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6586190380712</v>
+        <v>1.658619038071181</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023893</v>
+        <v>0.03031171286023858</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250534</v>
+        <v>0.202727452225051</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857753</v>
+        <v>1.95792039385773</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888901</v>
+        <v>6.979870613888819</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780647</v>
+        <v>19.15329845780625</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688505</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211083</v>
+        <v>44.01764264211031</v>
       </c>
       <c r="M9" t="n">
-        <v>51.366512785269</v>
+        <v>51.3665127852684</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286597</v>
+        <v>52.72603153286536</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619505</v>
+        <v>48.23401798619448</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006305</v>
+        <v>38.7120518200626</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542963</v>
+        <v>25.87798144542932</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779762</v>
+        <v>12.58688514779747</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531143</v>
+        <v>3.765573509531098</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457193</v>
+        <v>0.8171338973457097</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0133373323832272</v>
+        <v>0.01333733238322705</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889936</v>
+        <v>0.1699598858889916</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540326</v>
+        <v>1.511097894540308</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643554</v>
+        <v>5.111157295643493</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235184</v>
+        <v>12.0161639323517</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055761</v>
+        <v>19.74624856055738</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207819</v>
+        <v>25.26839976207789</v>
       </c>
       <c r="M10" t="n">
-        <v>26.6419846580356</v>
+        <v>26.64198465803528</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063119</v>
+        <v>26.00849781063088</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547339</v>
+        <v>24.02305732547311</v>
       </c>
       <c r="P10" t="n">
-        <v>20.5558756533379</v>
+        <v>20.55587565333766</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839563</v>
+        <v>14.23182280839547</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517835</v>
+        <v>7.642014505517746</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083641</v>
+        <v>2.961937284083606</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075177</v>
+        <v>0.7261922397075092</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308751</v>
+        <v>0.009270539230308641</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,10 +32071,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -32083,7 +32083,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -32101,16 +32101,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,10 +32177,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417549</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32785,7 +32785,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -33022,7 +33022,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33754,7 +33754,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -33888,13 +33888,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -33903,10 +33903,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I39" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917233</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,19 +34073,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,13 +34125,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -34140,10 +34140,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I42" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917233</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,19 +34310,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,7 +34447,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642314</v>
+        <v>14.19478239642297</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214634</v>
+        <v>32.15835924214596</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932028</v>
+        <v>48.19704430931971</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990202</v>
+        <v>59.79269533990134</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463041</v>
+        <v>66.53089438462965</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168237</v>
+        <v>67.60743381168155</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725736</v>
+        <v>63.83978262725662</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679298</v>
+        <v>54.48577748679236</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670163</v>
+        <v>40.91654977670117</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196233</v>
+        <v>23.80085166196199</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.3068132002097</v>
+        <v>6.979870613888821</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780648</v>
+        <v>51.79011391164895</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688505</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211084</v>
+        <v>44.0176426421103</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526901</v>
+        <v>51.36651278526841</v>
       </c>
       <c r="N9" t="n">
-        <v>119.0839105424619</v>
+        <v>52.72603153286536</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619506</v>
+        <v>48.23401798619449</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006304</v>
+        <v>38.71205182006258</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542961</v>
+        <v>25.87798144542927</v>
       </c>
       <c r="R9" t="n">
-        <v>59.03590440038823</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143253</v>
+        <v>15.79768152535015</v>
       </c>
       <c r="K10" t="n">
-        <v>119.0839105424619</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="L10" t="n">
-        <v>36.65654313298444</v>
+        <v>25.26839976207791</v>
       </c>
       <c r="M10" t="n">
-        <v>26.6419846580356</v>
+        <v>26.64198465803528</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063118</v>
+        <v>26.00849781063087</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547342</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333792</v>
+        <v>20.55587565333764</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424619</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35497,7 +35497,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>104.303584464872</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>382.7003105265221</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35649,7 +35649,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766674</v>
@@ -35661,7 +35661,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572666</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>576.9206257840676</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
-        <v>260.4234789221539</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35883,16 +35883,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062841</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35901,10 +35901,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
@@ -36044,25 +36044,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P19" t="n">
-        <v>425.0797619663504</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36205,13 +36205,13 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646693</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36281,25 +36281,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>167.0540751263759</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36372,7 +36372,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M25" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>198.8376634256979</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>259.9914571795427</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,7 +36594,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36612,13 +36612,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>301.5394187225209</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>294.241390365406</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36834,19 +36834,19 @@
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062841</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>198.8376634256979</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,10 +37068,10 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
@@ -37083,13 +37083,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
         <v>117.855135640546</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>281.8524450409515</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561043</v>
+        <v>466.0392124334235</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
         <v>70.4719911420766</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37466,25 +37466,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>281.8524450409513</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>383.6017480903506</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37621,25 +37621,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K40" t="n">
-        <v>167.0540751263761</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>420.0870927372733</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L43" t="n">
-        <v>281.8524450409513</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512703</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38116,10 +38116,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
